--- a/DB files - Excel/tblStudyFields.xlsx
+++ b/DB files - Excel/tblStudyFields.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -816,7 +816,7 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>TradeOffsExplicit</t>
+          <t>AlternativesExplicit</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>Was a tradeoff analysis conducted and documented?</t>
+          <t>Were alternatives elicited and documented clearly?</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>Optimal Alternative Documented</t>
+          <t>TradeOffsExplicit</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>Was the best management procedure, aka optimal alternative, documented?</t>
+          <t>Was a tradeoff analysis conducted and documented?</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>DecisionDocumented</t>
+          <t>Optimal Alternative Documented</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>Was the decision of the process documented?</t>
+          <t>Was the best management procedure, aka optimal alternative, documented?</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>RoleSpecification</t>
+          <t>DecisionDocumented</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Decision Process</t>
+          <t>Decision Analysis</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>Were roles assigned and documented?</t>
+          <t>Was the decision of the process documented?</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>OpenMeetings</t>
+          <t>RoleSpecification</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>Were open meetings held?</t>
+          <t>Were roles assigned and documented?</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>ResultsAdopted</t>
+          <t>OpenMeetings</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>Did the MSE influence subsequent management?</t>
+          <t>Were open meetings held?</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>ProblemDefinition</t>
+          <t>ResultsAdopted</t>
         </is>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Decision Analysis</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Yes/No</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>A problem definition taken from the documentation (Reader interpretation)</t>
+          <t>Did the MSE influence subsequent management?</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>ObjElicitationMethod</t>
+          <t>ProblemDefinition</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>If documented, how were objectives elicited?</t>
+          <t>A problem definition taken from the documentation (Reader interpretation)</t>
         </is>
       </c>
     </row>
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>ConsequencePrediction</t>
+          <t>ObjElicitationMethod</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>Decision Process</t>
+          <t>Decision Analysis</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>How were consequences predicted?</t>
+          <t>If documented, how were objectives elicited?</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>TradeOffMethod</t>
+          <t>ConsequencePrediction</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Decision Analysis</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>What form of tradeoff analysis occured?</t>
+          <t>How were consequences predicted?</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>Decision</t>
+          <t>TradeOffMethod</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>Decision Analysis</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>If documented, the management procedure that was selected for implementation</t>
+          <t>What form of tradeoff analysis occured?</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1091,22 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Decision</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Decision Process</t>
+          <t>Result</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>What organization initiated and directed the MSE?</t>
+          <t>If documented, the management procedure that was selected for implementation</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>Participants</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>Who participated in the MSE process?</t>
+          <t>What organization initiated and directed the MSE?</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>ObjElicitationSource</t>
+          <t>Participants</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>The groups from which objectives were elicited</t>
+          <t>Who participated in the MSE process?</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>ProcedureElicitation</t>
+          <t>ObjElicitationSource</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>The groups from which alternative management procedures were elicited</t>
+          <t>The groups from which objectives were elicited</t>
         </is>
       </c>
     </row>
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>FullCitation</t>
+          <t>ProcedureElicitation</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>The full citation for the study</t>
+          <t>The groups from which alternative management procedures were elicited</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>FullCitation</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>Additional notes and comments about the study</t>
+          <t>The full citation for the study</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>ObjName</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Objectives</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>Text description of the objective</t>
+          <t>Additional notes and comments about the study</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>ObjCategory</t>
+          <t>ObjName</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
@@ -1276,12 +1276,12 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E31" s="6" t="inlineStr">
         <is>
-          <t>The objective category (conservation, yield, economic, social)</t>
+          <t>Text description of the objective</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>ObjDescription</t>
+          <t>ObjCategory</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
-          <t>Description of the objective</t>
+          <t>The objective category (conservation, yield, economic, social)</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>ObjDirection</t>
+          <t>ObjDescription</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E33" s="6" t="inlineStr">
         <is>
-          <t>The desired state of the objective</t>
+          <t>Description of the objective</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>ObjType</t>
+          <t>ObjDirection</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E34" s="6" t="inlineStr">
         <is>
-          <t>The type of objective.  E.g., strategic, process, fundamental, or means</t>
+          <t>The desired state of the objective</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>ObjScale</t>
+          <t>ObjType</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E35" s="6" t="inlineStr">
         <is>
-          <t>The scale on which the objective is measures (natural, proxy, or constructed)</t>
+          <t>The type of objective.  E.g., strategic, process, fundamental, or means</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>ObjMetric</t>
+          <t>ObjScale</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E36" s="6" t="inlineStr">
         <is>
-          <t>The units used to measure the objective</t>
+          <t>The scale on which the objective is measures (natural, proxy, or constructed)</t>
         </is>
       </c>
     </row>
@@ -1416,22 +1416,22 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>MPManagementTool</t>
+          <t>ObjMetric</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>Alternatives</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E37" s="6" t="inlineStr">
         <is>
-          <t>Management alternatives evaluated in the study</t>
+          <t>The units used to measure the objective</t>
         </is>
       </c>
     </row>
@@ -1441,20 +1441,45 @@
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
+          <t>MPManagementTool</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>Alternatives</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>List</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>Management alternatives evaluated in the study</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
           <t>MPAlternativesEvaluated</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Alternatives</t>
         </is>
       </c>
-      <c r="D38" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>List</t>
         </is>
       </c>
-      <c r="E38" s="6" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>Types of alternatives evaluated</t>
         </is>

--- a/DB files - Excel/tblStudyFields.xlsx
+++ b/DB files - Excel/tblStudyFields.xlsx
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>Optimal Alternative Documented</t>
+          <t>DecisionExplicit</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>Was the best management procedure, aka optimal alternative, documented?</t>
+          <t>Was the decision of the process documented?</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>DecisionDocumented</t>
+          <t>OptimalAltExplicit</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>Was the decision of the process documented?</t>
+          <t>Was the best management procedure, aka optimal alternative, documented?</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>ConsequencePrediction</t>
+          <t>TradeOffMethod_Exp</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>Decision Process</t>
+          <t>Decision Analysis</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>How were consequences predicted?</t>
+          <t>If explicitly documented, what form of tradeoff analysis occured?</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>TradeOffMethod</t>
+          <t>TradeOffMethod_Sub</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>What form of tradeoff analysis occured?</t>
+          <t>If not explicitly documented, what form of tradeoff analysis seems to have occured?</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>ObjElicitationSource</t>
+          <t>ObjElicitationSource_Exp</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>The groups from which objectives were elicited</t>
+          <t>If explicitly documented, the groups from which objectives were elicited</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>ProcedureElicitation</t>
+          <t>ObjElicitationSource_Sub</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>The groups from which alternative management procedures were elicited</t>
+          <t>If not explicitly documented, the groups from which objectives were seemingly elicited</t>
         </is>
       </c>
     </row>
@@ -1216,22 +1216,22 @@
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
-          <t>FullCitation</t>
+          <t>ProcedureElicitation_Exp</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Documentation</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>The full citation for the study</t>
+          <t>If explicitly documented, the groups from which alternative management procedures were elicited</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>ProcedureElicitation_Sub</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>Additional notes and comments about the study</t>
+          <t>If not explicitly documented, the groups from which alternative management procedures were seemingly elicited</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>ObjName</t>
+          <t>ConsequencePrediction</t>
         </is>
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Objectives</t>
+          <t>Decision Process</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E31" s="6" t="inlineStr">
         <is>
-          <t>Text description of the objective</t>
+          <t>How were consequences predicted?</t>
         </is>
       </c>
     </row>
@@ -1291,22 +1291,22 @@
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
-          <t>ObjCategory</t>
+          <t>FullCitation</t>
         </is>
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Objectives</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E32" s="6" t="inlineStr">
         <is>
-          <t>The objective category (conservation, yield, economic, social)</t>
+          <t>The full citation for the study</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
-          <t>ObjDescription</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
-          <t>Objectives</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="D33" s="5" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E33" s="6" t="inlineStr">
         <is>
-          <t>Description of the objective</t>
+          <t>Additional notes and comments about the study</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
-          <t>ObjDirection</t>
+          <t>ObjName</t>
         </is>
       </c>
       <c r="C34" s="5" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>List</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E34" s="6" t="inlineStr">
         <is>
-          <t>The desired state of the objective</t>
+          <t>Text description of the objective</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
-          <t>ObjType</t>
+          <t>ObjCategory</t>
         </is>
       </c>
       <c r="C35" s="5" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E35" s="6" t="inlineStr">
         <is>
-          <t>The type of objective.  E.g., strategic, process, fundamental, or means</t>
+          <t>The objective category (conservation, yield, economic, social)</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
-          <t>ObjScale</t>
+          <t>ObjDescription</t>
         </is>
       </c>
       <c r="C36" s="5" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E36" s="6" t="inlineStr">
         <is>
-          <t>The scale on which the objective is measures (natural, proxy, or constructed)</t>
+          <t>Description of the objective</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
-          <t>ObjMetric</t>
+          <t>ObjDirection</t>
         </is>
       </c>
       <c r="C37" s="5" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>List</t>
         </is>
       </c>
       <c r="E37" s="6" t="inlineStr">
         <is>
-          <t>The units used to measure the objective</t>
+          <t>The desired state of the objective</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
-          <t>MPManagementTool</t>
+          <t>ObjType</t>
         </is>
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>Alternatives</t>
+          <t>Objectives</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>Management alternatives evaluated in the study</t>
+          <t>The type of objective.  E.g., strategic, process, fundamental, or means</t>
         </is>
       </c>
     </row>
@@ -1466,20 +1466,95 @@
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
+          <t>ObjScale</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>The scale on which the objective is measures (natural, proxy, or constructed)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>ObjMetric</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Objectives</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>The units used to measure the objective</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>MPManagementTool</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Alternatives</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>List</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>Management alternatives evaluated in the study</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
           <t>MPAlternativesEvaluated</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Alternatives</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>List</t>
         </is>
       </c>
-      <c r="E39" s="6" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>Types of alternatives evaluated</t>
         </is>
